--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjornnelson/SimplicityStudio/v5_workspace/ecen5823-assignment6-bjornhnelson/questions/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F8D28-5638-0F4D-A3AA-BD14DDE804B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -23,15 +32,154 @@
   </si>
   <si>
     <t>Use this column to denote if BT stack events cause your state machine to advance, you can put an X in the cell to note this. Drawing a bubble diagram of your state machine might also be a good idea 👍.</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>LCD Display State</t>
+  </si>
+  <si>
+    <t>Advances State Machine</t>
+  </si>
+  <si>
+    <t>Commands called in response to event</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Events Common to Slaves/Clients</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_boot_id</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_set_mode()</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_set_timing()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_default_parameters()</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_start()</t>
+  </si>
+  <si>
+    <t>You should start and stop scanning just like you did with advertising for a Server.</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_opened_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_closed_id</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_soft_timer_id</t>
+  </si>
+  <si>
+    <t>Events only for Masters/Clients</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_scanner_scan_report_id</t>
+  </si>
+  <si>
+    <t>Received for advertising or scan response packets generated by: sl_bt_scanner_start().
+Is the bd_addr, packet_type and address_type what we expect for our Server? If yes:
+   sl_bt_scanner_stop()
+   sl_bt_connection_open()</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_procedure_completed_id</t>
+  </si>
+  <si>
+    <t>We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine.</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
+      <t xml:space="preserve">Do not build your state machine into your  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="15"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>handle_ble_event()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> function! Instead build a new state machine for A7. </t>
+    </r>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_service_id</t>
+  </si>
+  <si>
+    <t>A GATT service in the remote GATT database was discovered</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_characteristic_id</t>
+  </si>
+  <si>
+    <t>A GATT characteristic in the remote GATT database was discovered</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_characteristic_value_id</t>
+  </si>
+  <si>
+    <t>If an indication or notification has been enabled for a characteristic, this event is triggered whenever an indication or notification is received from the remote GATT server.
+Is the characteristic handle and att_opcode we expect? If yes: 
+   sl_bt_gatt_send_characteristic_confirmation()</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Values to Save</t>
+  </si>
+  <si>
+    <t>Set the scan mode on the specified PHYs.</t>
+  </si>
+  <si>
+    <t>Set the scanning timing parameters on the specified PHYs.</t>
+  </si>
+  <si>
+    <t>Set the default Bluetooth connection parameters.</t>
+  </si>
+  <si>
+    <t>scan interval, scan window</t>
+  </si>
+  <si>
+    <t>min/max interval, latency, timeout</t>
+  </si>
+  <si>
+    <t>Start the GAP discovery procedure to scan for advertising devices on the specified scanning PHY or to perform a device discovery.</t>
+  </si>
+  <si>
+    <t>sl_bt_scanner_stop()</t>
+  </si>
+  <si>
+    <t>This event indicates that a new connection was opened.</t>
+  </si>
+  <si>
+    <t>This event indicates that a connection was closed.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Commands that may be useful:
 </t>
     </r>
@@ -40,6 +188,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">sl_bt_gatt_discover_primary_services_by_uuid()
 </t>
@@ -47,199 +196,201 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>sl_bt_gatt_discover_characteristics_by_uuid()</t>
+      <t>sl_bt_gatt_discover_characteristics_by_uuid()
+sl_bt_gatt_set_characteristic_notification()
+sl_bt_gatt_send_characteristic_confirmation()</t>
     </r>
-    <r>
-      <rPr>
-        <b val="1"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>This event is triggered by the 1 second soft timer for toggling the EXTCOMIN signal of the LCD display, to avoid buildup of static charge.</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>connection handle (sl_bt_evt_connection_opened-&gt;connection)</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_parameters()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request a change in the connection parameters of a Bluetooth connection.
 </t>
-    </r>
-  </si>
-  <si>
-    <t>Event</t>
-  </si>
-  <si>
-    <t>LCD Display State</t>
-  </si>
-  <si>
-    <t>Advances State Machine</t>
-  </si>
-  <si>
-    <t>Commands called in response to event</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Events Common to Slaves/Clients</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_boot_id</t>
-  </si>
-  <si>
-    <t>This event is generated on stack boot up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can also document in column D values that need to be saved in response to receiving BT stack events. </t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_set_mode()</t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_set_timing()</t>
-  </si>
-  <si>
-    <t>sl_bt_connection_set_default_parameters()</t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_start()</t>
-  </si>
-  <si>
-    <t>You should start and stop scanning just like you did with advertising for a Server.</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_connection_opened_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_connection_closed_id</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_soft_timer_id</t>
-  </si>
-  <si>
-    <t>This event indicates that a soft timer has expired.</t>
-  </si>
-  <si>
-    <t>Events only for Masters/Clients</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_scanner_scan_report_id</t>
-  </si>
-  <si>
-    <t>Received for advertising or scan response packets generated by: sl_bt_scanner_start().
-Is the bd_addr, packet_type and address_type what we expect for our Server? If yes:
-   sl_bt_scanner_stop()
-   sl_bt_connection_open()</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_procedure_completed_id</t>
-  </si>
-  <si>
-    <t>We get this event when it’s ok to call the next GATT command. It’s a good idea to check for returned error codes. This would be a great event to use to sequence your new state machine.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">Do not build your state machine into your  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="15"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>handle_ble_event()</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> function! Instead build a new state machine for A7. </t>
-    </r>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_service_id</t>
-  </si>
-  <si>
-    <t>A GATT service in the remote GATT database was discovered</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_characteristic_id</t>
-  </si>
-  <si>
-    <t>A GATT characteristic in the remote GATT database was discovered</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_characteristic_value_id</t>
-  </si>
-  <si>
-    <t>If an indication or notification has been enabled for a characteristic, this event is triggered whenever an indication or notification is received from the remote GATT server.
-Is the characteristic handle and att_opcode we expect? If yes: 
-   sl_bt_gatt_send_characteristic_confirmation()</t>
+  </si>
+  <si>
+    <t>Stop scanning for advertising devices.</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
+  </si>
+  <si>
+    <t>Discover primary services with the specified UUID in a remote GATT database. Looking for temperature service in this case</t>
+  </si>
+  <si>
+    <t>service handle (sl_bt_evt_gatt_service-&gt;service)</t>
+  </si>
+  <si>
+    <t>characteristic handle (sl_bt_evt_gatt_characteristic-&gt;characteristic)</t>
+  </si>
+  <si>
+    <t>characteristic value (sl_bt_evt_gatt_characteristic_value-&gt;value)</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_send_characteristic_confirmation()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_open()</t>
+  </si>
+  <si>
+    <t>packet type, address, address type</t>
+  </si>
+  <si>
+    <t>Connect to an advertising device with the specified initiating PHY on which connectable advertisements on primary advertising channels are received.</t>
+  </si>
+  <si>
+    <t>This event is generated on stack boot up. This event indicates the device has started and the radio is ready.</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_discover_characteristics_by_uuid()</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_set_characteristic_notification()</t>
+  </si>
+  <si>
+    <t>Discover all characteristics of a GATT service in a remote GATT database having the specified UUID.</t>
+  </si>
+  <si>
+    <t>If indication is from temperature service, call LCD display function to show latest temp value</t>
+  </si>
+  <si>
+    <t>Various API calls to initialize the client</t>
+  </si>
+  <si>
+    <t>Return to awaiting connection state</t>
+  </si>
+  <si>
+    <t>Advance state machine to discovering service state, call sl_bt_gatt_discover_primary_services_by_uuid() before doing so</t>
+  </si>
+  <si>
+    <t>Case 1: When service matching UUID is found (in discovering service state), call sl_bt_gatt_discover_characteristics_by_uuid() and advance state machine to discovering characteristic state</t>
+  </si>
+  <si>
+    <t>Case 2: When characteristic matching UUID is found (in discovering characteristic state), call sl_bt_gatt_set_characteristic_notification() and advance state machine to receiving indications state</t>
+  </si>
+  <si>
+    <t>Case 3: When in receiving indications state, do nothing (keep receiving indications)</t>
+  </si>
+  <si>
+    <t>Pass in saved address and address type parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="13"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="15"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -348,82 +499,100 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -433,29 +602,134 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff2236ff"/>
-      <rgbColor rgb="ff4d8f72"/>
-      <rgbColor rgb="ff4d8f72"/>
-      <rgbColor rgb="ff2e74b5"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF2236FF"/>
+      <rgbColor rgb="FF4D8F72"/>
+      <rgbColor rgb="FF4D8F72"/>
+      <rgbColor rgb="FF2E74B5"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>539658</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>74041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1134533</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>125345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A94616ED-66C4-EE40-9F87-96D3BA587628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19386458" y="2495508"/>
+          <a:ext cx="8113275" cy="5266770"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -657,7 +931,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -676,7 +950,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -706,7 +980,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +1006,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +1032,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +1058,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +1084,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1110,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +1162,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1188,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -927,9 +1201,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -946,7 +1226,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -965,7 +1245,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -991,7 +1271,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1297,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1323,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1375,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1401,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1427,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1453,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1479,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,9 +1492,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1228,7 +1514,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1247,7 +1533,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1277,7 +1563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1667,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1693,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1719,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1745,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1771,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1498,346 +1784,601 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="13.45" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6719" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="44.8516" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="44.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.55" customHeight="1">
+    <row r="1" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2"/>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="5"/>
-    </row>
-    <row r="2" ht="12.05" customHeight="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" ht="119.55" customHeight="1">
-      <c r="A3" s="9"/>
-      <c r="B3" t="s" s="9">
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="35"/>
+    </row>
+    <row r="2" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" ht="119.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s" s="9">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="E3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="F3" s="6"/>
+      <c r="G3" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="8"/>
-    </row>
-    <row r="4" ht="12.05" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" t="s" s="6">
+      <c r="C5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="9">
+      <c r="E5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s" s="9">
+      <c r="F5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s" s="9">
+      <c r="H5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s" s="9">
+    </row>
+    <row r="6" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" ht="13.75" customHeight="1">
-      <c r="A5" t="s" s="10">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-    </row>
-    <row r="6" ht="26.75" customHeight="1">
-      <c r="A6" s="11"/>
-      <c r="B6" t="s" s="11">
+      <c r="C7" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" t="s" s="14">
+      <c r="H8" s="31"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F6" t="s" s="15">
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" t="s" s="17">
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="26.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="15"/>
-    </row>
-    <row r="8" ht="13.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" t="s" s="17">
+      <c r="H11" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" ht="13.55" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" t="s" s="17">
+    </row>
+    <row r="12" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" ht="26.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" t="s" s="17">
+      <c r="C13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s" s="15">
+      <c r="C17" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" ht="13.55" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" ht="13.55" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" t="s" s="20">
+      <c r="C20" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="16"/>
+      <c r="E20" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" ht="13.55" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" ht="13.55" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" t="s" s="20">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" ht="78" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" ht="13.55" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" ht="13.55" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" t="s" s="20">
+      <c r="C23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" t="s" s="21">
+      <c r="D23" s="16"/>
+      <c r="E23" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="18"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" ht="13.55" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" ht="13.55" customHeight="1">
-      <c r="A18" t="s" s="10">
+      <c r="C27" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-    </row>
-    <row r="19" ht="78.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" t="s" s="20">
+      <c r="D27" s="16"/>
+      <c r="E27" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" t="s" s="21">
+    </row>
+    <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" s="24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" ht="13.55" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" ht="39.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" t="s" s="20">
+      <c r="C32" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" t="s" s="21">
+      <c r="D32" s="16"/>
+      <c r="E32" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="16"/>
+    </row>
+    <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+    </row>
+    <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="4"/>
+      <c r="B34" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F21" t="s" s="23">
+      <c r="C34" s="18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="13.55" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-    </row>
-    <row r="23" ht="13.55" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" t="s" s="20">
+      <c r="D34" s="16"/>
+      <c r="E34" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="28"/>
+      <c r="H34" s="16"/>
+    </row>
+    <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+    </row>
+    <row r="36" spans="1:8" ht="65.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" t="s" s="21">
+      <c r="C36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="19"/>
-    </row>
-    <row r="24" ht="13.55" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" ht="13.55" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" t="s" s="21">
-        <v>32</v>
-      </c>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" ht="13.55" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-    </row>
-    <row r="27" ht="65.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" t="s" s="21">
-        <v>34</v>
-      </c>
-      <c r="F27" s="19"/>
-    </row>
-    <row r="28" ht="13.55" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" ht="13.55" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H36" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B1:H1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/questions/Assignment6-ClientCommandTableForA7.xlsx
+++ b/questions/Assignment6-ClientCommandTableForA7.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjornnelson/SimplicityStudio/v5_workspace/ecen5823-assignment6-bjornhnelson/questions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bjornnelson/SimplicityStudio/v5_workspace/ecen5823-assignment7-bjornhnelson/questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87F8D28-5638-0F4D-A3AA-BD14DDE804B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE5B0EAC-64D8-AB4F-9F9E-6485E9369B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="77">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>Pass in saved address and address type parameters</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION - handling indications</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION - connected, DISPLAY_ROW_BTADDR2 - server address</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_TEMPVALUE - temp value</t>
+  </si>
+  <si>
+    <t>DISPLAY_ROW_CONNECTION - discovering, DISPLAY_ROW_NAME - client, DISPLAY_ROW_BTADDR - client address, DISPLAY_ROW_ASSIGNMENT - A7</t>
   </si>
 </sst>
 </file>
@@ -1808,8 +1820,8 @@
   </sheetPr>
   <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="116" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1918,7 +1930,9 @@
       <c r="C7" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="29" t="s">
+        <v>76</v>
+      </c>
       <c r="E7" s="29" t="s">
         <v>56</v>
       </c>
@@ -2010,7 +2024,9 @@
       <c r="C13" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="16"/>
+      <c r="D13" s="29" t="s">
+        <v>74</v>
+      </c>
       <c r="E13" s="24" t="s">
         <v>46</v>
       </c>
@@ -2240,7 +2256,9 @@
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="16"/>
+      <c r="D29" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="24" t="s">
@@ -2336,7 +2354,9 @@
       <c r="C36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="16" t="s">
+        <v>75</v>
+      </c>
       <c r="E36" s="16" t="s">
         <v>56</v>
       </c>
